--- a/tests/test_files/issue_190.xlsx
+++ b/tests/test_files/issue_190.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD92AF2-FD7F-497D-9628-91871145A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB9B35-FE44-4426-9503-1852542BAE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="1425" windowWidth="17775" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,15 +2273,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657922</xdr:colOff>
+      <xdr:colOff>638872</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2311,7 +2311,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1685925" y="2647950"/>
+          <a:off x="1666875" y="2019300"/>
           <a:ext cx="1029397" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2334,15 +2334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
+      <xdr:rowOff>581025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/tests/test_files/issue_190.xlsx
+++ b/tests/test_files/issue_190.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB9B35-FE44-4426-9503-1852542BAE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238E719-01E0-481D-9F77-1E1B40B2DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1425" windowWidth="17775" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="870" windowWidth="17775" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,104 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B2682E78-9B69-493D-BD4B-4C6175CE4241}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ABCD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{06284EEB-7FDE-48C0-8210-580E63B0E310}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>DDDD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{2DBF32B1-89E6-40F5-A6CD-34F07D6694DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>AAA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{CA27CF95-75FA-40C6-901D-35B7B0A81DD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TEST</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{A8DC2445-3BB9-4C4B-895A-8142893A830D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TEST</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +146,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2143,6 +2246,189 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>610297</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315B9AB8-B6AD-45A8-8551-2F92E9131C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="2095500"/>
+          <a:ext cx="1029397" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600772</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D1804C-364F-40BE-860C-71D3F75084FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3000375" y="361950"/>
+          <a:ext cx="1029397" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476947</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2037872-1144-4916-8E3B-B109D7A89A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2876550" y="2162175"/>
+          <a:ext cx="1029397" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2658,14 +2944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="51.75" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2678,7 +2964,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="51.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2691,7 +2977,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="51.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2704,7 +2990,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="51.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2717,7 +3003,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="51.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2733,7 +3019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="51.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2746,7 +3032,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="51.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2759,44 +3045,45 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="51.75" customHeight="1">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="10" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="11" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="12" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="13" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="14" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="51.75" customHeight="1"/>
+    <row r="17" ht="51.75" customHeight="1"/>
+    <row r="18" ht="51.75" customHeight="1"/>
+    <row r="19" ht="51.75" customHeight="1"/>
+    <row r="20" ht="51.75" customHeight="1"/>
+    <row r="21" ht="51.75" customHeight="1"/>
+    <row r="22" ht="51.75" customHeight="1"/>
+    <row r="23" ht="51.75" customHeight="1"/>
+    <row r="24" ht="51.75" customHeight="1"/>
+    <row r="25" ht="51.75" customHeight="1"/>
+    <row r="26" ht="51.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F22EEE-ABDE-4FB8-A755-95DA7E0F03CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F22EEE-ABDE-4FB8-A755-95DA7E0F03CB}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="51.75" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2808,7 +3095,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="51.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2820,7 +3107,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="51.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2832,7 +3119,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="51.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2847,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="51.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2859,7 +3146,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="51.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2871,30 +3158,31 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="51.75" customHeight="1"/>
+    <row r="17" ht="51.75" customHeight="1"/>
+    <row r="18" ht="51.75" customHeight="1"/>
+    <row r="19" ht="51.75" customHeight="1"/>
+    <row r="20" ht="51.75" customHeight="1"/>
+    <row r="21" ht="51.75" customHeight="1"/>
+    <row r="22" ht="51.75" customHeight="1"/>
+    <row r="23" ht="51.75" customHeight="1"/>
+    <row r="24" ht="51.75" customHeight="1"/>
+    <row r="25" ht="51.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2906,9 +3194,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="5:7">
       <c r="E5">
         <v>1</v>
       </c>
@@ -2919,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="5:7">
       <c r="E6">
         <v>4</v>
       </c>
